--- a/doc/ue_findfloor.xlsx
+++ b/doc/ue_findfloor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC9D61F-A5E1-49D0-ABB5-1735521B4977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD5EE78-52CA-4967-A70C-7D11FEE53935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>角色移动的时候，涉及到位置的偏移</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>void UCharacterMovementComponent::FindFloor(const FVector&amp; CapsuleLocation, FFindFloorResult&amp; OutFloorResult, bool bCanUseCachedLocation, const FHitResult* DownwardSweepResult) const</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/33529865</t>
   </si>
 </sst>
 </file>
@@ -400,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:C7"/>
+  <dimension ref="B5:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -427,6 +430,11 @@
       </c>
       <c r="C7" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -487,7 +495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14CBD75-4E48-4758-B834-A88FFE2D0A35}">
   <dimension ref="B4:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
